--- a/data/crude_oil_2025_price.xlsx
+++ b/data/crude_oil_2025_price.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F184"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4106,7 +4106,7 @@
         <v>62.7400016784668</v>
       </c>
       <c r="F183" t="n">
-        <v>87165</v>
+        <v>223779</v>
       </c>
     </row>
     <row r="184">
@@ -4114,19 +4114,79 @@
         <v>45923</v>
       </c>
       <c r="B184" t="n">
-        <v>63</v>
+        <v>63.40999984741211</v>
       </c>
       <c r="C184" t="n">
-        <v>63.09000015258789</v>
+        <v>63.88999938964844</v>
       </c>
       <c r="D184" t="n">
         <v>61.84999847412109</v>
       </c>
       <c r="E184" t="n">
-        <v>62.7400016784668</v>
+        <v>62.33000183105469</v>
       </c>
       <c r="F184" t="n">
-        <v>59850</v>
+        <v>265948</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B185" t="n">
+        <v>64.98999786376953</v>
+      </c>
+      <c r="C185" t="n">
+        <v>65.05000305175781</v>
+      </c>
+      <c r="D185" t="n">
+        <v>63.25</v>
+      </c>
+      <c r="E185" t="n">
+        <v>63.63999938964844</v>
+      </c>
+      <c r="F185" t="n">
+        <v>282721</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B186" t="n">
+        <v>64.98000335693359</v>
+      </c>
+      <c r="C186" t="n">
+        <v>65.33999633789062</v>
+      </c>
+      <c r="D186" t="n">
+        <v>64.05999755859375</v>
+      </c>
+      <c r="E186" t="n">
+        <v>64.80000305175781</v>
+      </c>
+      <c r="F186" t="n">
+        <v>282721</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B187" t="n">
+        <v>65.11000061035156</v>
+      </c>
+      <c r="C187" t="n">
+        <v>65.40000152587891</v>
+      </c>
+      <c r="D187" t="n">
+        <v>65.02999877929688</v>
+      </c>
+      <c r="E187" t="n">
+        <v>65.19999694824219</v>
+      </c>
+      <c r="F187" t="n">
+        <v>28570</v>
       </c>
     </row>
   </sheetData>

--- a/data/crude_oil_2025_price.xlsx
+++ b/data/crude_oil_2025_price.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F187"/>
+  <dimension ref="A1:F188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4166,7 +4166,7 @@
         <v>64.80000305175781</v>
       </c>
       <c r="F186" t="n">
-        <v>282721</v>
+        <v>258353</v>
       </c>
     </row>
     <row r="187">
@@ -4174,19 +4174,39 @@
         <v>45926</v>
       </c>
       <c r="B187" t="n">
-        <v>65.11000061035156</v>
+        <v>65.72000122070312</v>
       </c>
       <c r="C187" t="n">
-        <v>65.40000152587891</v>
+        <v>66.41999816894531</v>
       </c>
       <c r="D187" t="n">
-        <v>65.02999877929688</v>
+        <v>64.66000366210938</v>
       </c>
       <c r="E187" t="n">
         <v>65.19999694824219</v>
       </c>
       <c r="F187" t="n">
-        <v>28570</v>
+        <v>258353</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B188" t="n">
+        <v>64.63999938964844</v>
+      </c>
+      <c r="C188" t="n">
+        <v>65.40000152587891</v>
+      </c>
+      <c r="D188" t="n">
+        <v>64.58999633789062</v>
+      </c>
+      <c r="E188" t="n">
+        <v>65.06999969482422</v>
+      </c>
+      <c r="F188" t="n">
+        <v>42532</v>
       </c>
     </row>
   </sheetData>

--- a/data/crude_oil_2025_price.xlsx
+++ b/data/crude_oil_2025_price.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4186,7 +4186,7 @@
         <v>65.19999694824219</v>
       </c>
       <c r="F187" t="n">
-        <v>258353</v>
+        <v>284990</v>
       </c>
     </row>
     <row r="188">
@@ -4194,19 +4194,119 @@
         <v>45929</v>
       </c>
       <c r="B188" t="n">
-        <v>64.63999938964844</v>
+        <v>63.45000076293945</v>
       </c>
       <c r="C188" t="n">
         <v>65.40000152587891</v>
       </c>
       <c r="D188" t="n">
-        <v>64.58999633789062</v>
+        <v>62.97999954223633</v>
       </c>
       <c r="E188" t="n">
         <v>65.06999969482422</v>
       </c>
       <c r="F188" t="n">
-        <v>42532</v>
+        <v>294292</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B189" t="n">
+        <v>62.36999893188477</v>
+      </c>
+      <c r="C189" t="n">
+        <v>63.2599983215332</v>
+      </c>
+      <c r="D189" t="n">
+        <v>62.02999877929688</v>
+      </c>
+      <c r="E189" t="n">
+        <v>63.13999938964844</v>
+      </c>
+      <c r="F189" t="n">
+        <v>271649</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B190" t="n">
+        <v>61.77999877929688</v>
+      </c>
+      <c r="C190" t="n">
+        <v>62.88999938964844</v>
+      </c>
+      <c r="D190" t="n">
+        <v>61.40000152587891</v>
+      </c>
+      <c r="E190" t="n">
+        <v>62.45999908447266</v>
+      </c>
+      <c r="F190" t="n">
+        <v>274339</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B191" t="n">
+        <v>60.47999954223633</v>
+      </c>
+      <c r="C191" t="n">
+        <v>62.54000091552734</v>
+      </c>
+      <c r="D191" t="n">
+        <v>60.40000152587891</v>
+      </c>
+      <c r="E191" t="n">
+        <v>61.77999877929688</v>
+      </c>
+      <c r="F191" t="n">
+        <v>290507</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B192" t="n">
+        <v>60.88000106811523</v>
+      </c>
+      <c r="C192" t="n">
+        <v>61.38000106811523</v>
+      </c>
+      <c r="D192" t="n">
+        <v>60.54999923706055</v>
+      </c>
+      <c r="E192" t="n">
+        <v>60.70000076293945</v>
+      </c>
+      <c r="F192" t="n">
+        <v>290507</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B193" t="n">
+        <v>61.70000076293945</v>
+      </c>
+      <c r="C193" t="n">
+        <v>61.91999816894531</v>
+      </c>
+      <c r="D193" t="n">
+        <v>61.09000015258789</v>
+      </c>
+      <c r="E193" t="n">
+        <v>61.13999938964844</v>
+      </c>
+      <c r="F193" t="n">
+        <v>26776</v>
       </c>
     </row>
   </sheetData>
